--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105228.8784869876</v>
+        <v>19004745.6605408</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105228.8784869876</v>
+        <v>19004745.6605408</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78887.91987773436</v>
+        <v>9908305.148274444</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78887.91987773436</v>
+        <v>9908305.148274444</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608580326.472079</v>
+        <v>54839321.47090307</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12712.96323787374</v>
+        <v>1257798.413077719</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24719.7449648533</v>
+        <v>2407234.895118946</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36726.52669183285</v>
+        <v>3556671.377160172</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50971.1944791142</v>
+        <v>4413960.36238349</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62932.62975863392</v>
+        <v>5569840.490816993</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74894.06503815364</v>
+        <v>6725720.619250494</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86855.50031767334</v>
+        <v>7881600.747683993</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98816.93559719306</v>
+        <v>9037480.876117487</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112531.0979813758</v>
+        <v>9958706.665526712</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124390.2757915252</v>
+        <v>11128258.54939499</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135950.2563043991</v>
+        <v>12250710.74376274</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147794.5509223203</v>
+        <v>13420262.62763102</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159655.5048656192</v>
+        <v>14589814.51149931</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173123.2471988971</v>
+        <v>15515975.19282136</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193483.1370226709</v>
+        <v>15782062.15399959</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
